--- a/wild_reports/tr0712t009_wild_report.xlsx
+++ b/wild_reports/tr0712t009_wild_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -544,7 +544,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -557,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -575,7 +579,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -593,7 +597,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -606,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>

--- a/wild_reports/tr0712t009_wild_report.xlsx
+++ b/wild_reports/tr0712t009_wild_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -544,11 +544,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -561,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -579,7 +575,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -597,11 +593,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -614,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
